--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Efna5-Epha1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Efna5-Epha1.xlsx
@@ -540,16 +540,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.4223226666666666</v>
+        <v>0.3227736666666667</v>
       </c>
       <c r="H2">
-        <v>1.266968</v>
+        <v>0.968321</v>
       </c>
       <c r="I2">
-        <v>0.1676547342089268</v>
+        <v>0.1416094457286952</v>
       </c>
       <c r="J2">
-        <v>0.1676547342089269</v>
+        <v>0.1416094457286952</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.497699333333333</v>
+        <v>2.655411666666667</v>
       </c>
       <c r="N2">
-        <v>13.493098</v>
+        <v>7.966235</v>
       </c>
       <c r="O2">
-        <v>0.2265545985397048</v>
+        <v>0.1255433399118981</v>
       </c>
       <c r="P2">
-        <v>0.2265545985397048</v>
+        <v>0.1255433399118982</v>
       </c>
       <c r="Q2">
-        <v>1.899480376318222</v>
+        <v>0.8570969601594445</v>
       </c>
       <c r="R2">
-        <v>17.095323386864</v>
+        <v>7.713872641435001</v>
       </c>
       <c r="S2">
-        <v>0.03798295100198433</v>
+        <v>0.01777812277985307</v>
       </c>
       <c r="T2">
-        <v>0.03798295100198434</v>
+        <v>0.01777812277985307</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.4223226666666666</v>
+        <v>0.3227736666666667</v>
       </c>
       <c r="H3">
-        <v>1.266968</v>
+        <v>0.968321</v>
       </c>
       <c r="I3">
-        <v>0.1676547342089268</v>
+        <v>0.1416094457286952</v>
       </c>
       <c r="J3">
-        <v>0.1676547342089269</v>
+        <v>0.1416094457286952</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>23.493119</v>
       </c>
       <c r="O3">
-        <v>0.3944590147859676</v>
+        <v>0.3702382146908386</v>
       </c>
       <c r="P3">
-        <v>0.3944590147859677</v>
+        <v>0.3702382146908386</v>
       </c>
       <c r="Q3">
-        <v>3.307225554799111</v>
+        <v>2.527653387022111</v>
       </c>
       <c r="R3">
-        <v>29.765029993192</v>
+        <v>22.748880483199</v>
       </c>
       <c r="S3">
-        <v>0.06613292128025655</v>
+        <v>0.0524292283699513</v>
       </c>
       <c r="T3">
-        <v>0.06613292128025658</v>
+        <v>0.0524292283699513</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.4223226666666666</v>
+        <v>0.3227736666666667</v>
       </c>
       <c r="H4">
-        <v>1.266968</v>
+        <v>0.968321</v>
       </c>
       <c r="I4">
-        <v>0.1676547342089268</v>
+        <v>0.1416094457286952</v>
       </c>
       <c r="J4">
-        <v>0.1676547342089269</v>
+        <v>0.1416094457286952</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.804271333333333</v>
+        <v>6.127532</v>
       </c>
       <c r="N4">
-        <v>5.412813999999999</v>
+        <v>18.382596</v>
       </c>
       <c r="O4">
-        <v>0.09088334663693197</v>
+        <v>0.2896992742608144</v>
       </c>
       <c r="P4">
-        <v>0.09088334663693197</v>
+        <v>0.2896992742608145</v>
       </c>
       <c r="Q4">
-        <v>0.7619846808835554</v>
+        <v>1.977805971257333</v>
       </c>
       <c r="R4">
-        <v>6.857862127951998</v>
+        <v>17.800253741316</v>
       </c>
       <c r="S4">
-        <v>0.01523702332443259</v>
+        <v>0.04102415365607918</v>
       </c>
       <c r="T4">
-        <v>0.0152370233244326</v>
+        <v>0.04102415365607918</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.4223226666666666</v>
+        <v>0.3227736666666667</v>
       </c>
       <c r="H5">
-        <v>1.266968</v>
+        <v>0.968321</v>
       </c>
       <c r="I5">
-        <v>0.1676547342089268</v>
+        <v>0.1416094457286952</v>
       </c>
       <c r="J5">
-        <v>0.1676547342089269</v>
+        <v>0.1416094457286952</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.498796666666667</v>
+        <v>2.108791333333333</v>
       </c>
       <c r="N5">
-        <v>7.49639</v>
+        <v>6.326373999999999</v>
       </c>
       <c r="O5">
-        <v>0.1258674343688201</v>
+        <v>0.09970006175963861</v>
       </c>
       <c r="P5">
-        <v>0.1258674343688201</v>
+        <v>0.09970006175963862</v>
       </c>
       <c r="Q5">
-        <v>1.055298471724444</v>
+        <v>0.6806623108948888</v>
       </c>
       <c r="R5">
-        <v>9.497686245519999</v>
+        <v>6.125960798054</v>
       </c>
       <c r="S5">
-        <v>0.02110227125466408</v>
+        <v>0.0141184704848991</v>
       </c>
       <c r="T5">
-        <v>0.02110227125466408</v>
+        <v>0.0141184704848991</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.4223226666666666</v>
+        <v>0.3227736666666667</v>
       </c>
       <c r="H6">
-        <v>1.266968</v>
+        <v>0.968321</v>
       </c>
       <c r="I6">
-        <v>0.1676547342089268</v>
+        <v>0.1416094457286952</v>
       </c>
       <c r="J6">
-        <v>0.1676547342089269</v>
+        <v>0.1416094457286952</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.220799666666667</v>
+        <v>2.428579666666666</v>
       </c>
       <c r="N6">
-        <v>9.662399000000001</v>
+        <v>7.285739</v>
       </c>
       <c r="O6">
-        <v>0.1622356056685755</v>
+        <v>0.1148191093768101</v>
       </c>
       <c r="P6">
-        <v>0.1622356056685755</v>
+        <v>0.1148191093768101</v>
       </c>
       <c r="Q6">
-        <v>1.360216704025778</v>
+        <v>0.783881563802111</v>
       </c>
       <c r="R6">
-        <v>12.241950336232</v>
+        <v>7.054934074218999</v>
       </c>
       <c r="S6">
-        <v>0.02719956734758929</v>
+        <v>0.0162594704379125</v>
       </c>
       <c r="T6">
-        <v>0.0271995673475893</v>
+        <v>0.01625947043791251</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>5.624959</v>
       </c>
       <c r="I7">
-        <v>0.7443368783435028</v>
+        <v>0.8226066833587575</v>
       </c>
       <c r="J7">
-        <v>0.7443368783435029</v>
+        <v>0.8226066833587576</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.497699333333333</v>
+        <v>2.655411666666667</v>
       </c>
       <c r="N7">
-        <v>13.493098</v>
+        <v>7.966235</v>
       </c>
       <c r="O7">
-        <v>0.2265545985397048</v>
+        <v>0.1255433399118981</v>
       </c>
       <c r="P7">
-        <v>0.2265545985397048</v>
+        <v>0.1255433399118982</v>
       </c>
       <c r="Q7">
-        <v>8.433124781442444</v>
+        <v>4.978860584373889</v>
       </c>
       <c r="R7">
-        <v>75.898123032982</v>
+        <v>44.809745259365</v>
       </c>
       <c r="S7">
-        <v>0.1686329426514094</v>
+        <v>0.1032727904627077</v>
       </c>
       <c r="T7">
-        <v>0.1686329426514094</v>
+        <v>0.1032727904627077</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>5.624959</v>
       </c>
       <c r="I8">
-        <v>0.7443368783435028</v>
+        <v>0.8226066833587575</v>
       </c>
       <c r="J8">
-        <v>0.7443368783435029</v>
+        <v>0.8226066833587576</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>23.493119</v>
       </c>
       <c r="O8">
-        <v>0.3944590147859676</v>
+        <v>0.3702382146908386</v>
       </c>
       <c r="P8">
-        <v>0.3944590147859677</v>
+        <v>0.3702382146908386</v>
       </c>
       <c r="Q8">
         <v>14.68309235079122</v>
@@ -948,10 +948,10 @@
         <v>132.147831157121</v>
       </c>
       <c r="S8">
-        <v>0.2936103917002408</v>
+        <v>0.3045604298394984</v>
       </c>
       <c r="T8">
-        <v>0.2936103917002409</v>
+        <v>0.3045604298394984</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>5.624959</v>
       </c>
       <c r="I9">
-        <v>0.7443368783435028</v>
+        <v>0.8226066833587575</v>
       </c>
       <c r="J9">
-        <v>0.7443368783435029</v>
+        <v>0.8226066833587576</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.804271333333333</v>
+        <v>6.127532</v>
       </c>
       <c r="N9">
-        <v>5.412813999999999</v>
+        <v>18.382596</v>
       </c>
       <c r="O9">
-        <v>0.09088334663693197</v>
+        <v>0.2896992742608144</v>
       </c>
       <c r="P9">
-        <v>0.09088334663693197</v>
+        <v>0.2896992742608145</v>
       </c>
       <c r="Q9">
-        <v>3.382984091625111</v>
+        <v>11.48903875706267</v>
       </c>
       <c r="R9">
-        <v>30.446856824626</v>
+        <v>103.401348813564</v>
       </c>
       <c r="S9">
-        <v>0.06764782652914443</v>
+        <v>0.2383085591711276</v>
       </c>
       <c r="T9">
-        <v>0.06764782652914443</v>
+        <v>0.2383085591711277</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>5.624959</v>
       </c>
       <c r="I10">
-        <v>0.7443368783435028</v>
+        <v>0.8226066833587575</v>
       </c>
       <c r="J10">
-        <v>0.7443368783435029</v>
+        <v>0.8226066833587576</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.498796666666667</v>
+        <v>2.108791333333333</v>
       </c>
       <c r="N10">
-        <v>7.49639</v>
+        <v>6.326373999999999</v>
       </c>
       <c r="O10">
-        <v>0.1258674343688201</v>
+        <v>0.09970006175963861</v>
       </c>
       <c r="P10">
-        <v>0.1258674343688201</v>
+        <v>0.09970006175963862</v>
       </c>
       <c r="Q10">
-        <v>4.685209599778889</v>
+        <v>3.953954929851777</v>
       </c>
       <c r="R10">
-        <v>42.16688639801</v>
+        <v>35.585594368666</v>
       </c>
       <c r="S10">
-        <v>0.09368777318319327</v>
+        <v>0.0820139371347596</v>
       </c>
       <c r="T10">
-        <v>0.09368777318319328</v>
+        <v>0.08201393713475963</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>5.624959</v>
       </c>
       <c r="I11">
-        <v>0.7443368783435028</v>
+        <v>0.8226066833587575</v>
       </c>
       <c r="J11">
-        <v>0.7443368783435029</v>
+        <v>0.8226066833587576</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>3.220799666666667</v>
+        <v>2.428579666666666</v>
       </c>
       <c r="N11">
-        <v>9.662399000000001</v>
+        <v>7.285739</v>
       </c>
       <c r="O11">
-        <v>0.1622356056685755</v>
+        <v>0.1148191093768101</v>
       </c>
       <c r="P11">
-        <v>0.1622356056685755</v>
+        <v>0.1148191093768101</v>
       </c>
       <c r="Q11">
-        <v>6.038955357404556</v>
+        <v>4.553553684411222</v>
       </c>
       <c r="R11">
-        <v>54.35059821664101</v>
+        <v>40.981983159701</v>
       </c>
       <c r="S11">
-        <v>0.120757944279515</v>
+        <v>0.09445096675066417</v>
       </c>
       <c r="T11">
-        <v>0.120757944279515</v>
+        <v>0.09445096675066419</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,22 +1154,22 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.2216933333333333</v>
+        <v>0.081563</v>
       </c>
       <c r="H12">
-        <v>0.66508</v>
+        <v>0.244689</v>
       </c>
       <c r="I12">
-        <v>0.08800838744757017</v>
+        <v>0.03578387091254728</v>
       </c>
       <c r="J12">
-        <v>0.08800838744757018</v>
+        <v>0.03578387091254728</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.497699333333333</v>
+        <v>2.655411666666667</v>
       </c>
       <c r="N12">
-        <v>13.493098</v>
+        <v>7.966235</v>
       </c>
       <c r="O12">
-        <v>0.2265545985397048</v>
+        <v>0.1255433399118981</v>
       </c>
       <c r="P12">
-        <v>0.2265545985397048</v>
+        <v>0.1255433399118982</v>
       </c>
       <c r="Q12">
-        <v>0.9971099575377778</v>
+        <v>0.2165833417683333</v>
       </c>
       <c r="R12">
-        <v>8.973989617839999</v>
+        <v>1.949250075915</v>
       </c>
       <c r="S12">
-        <v>0.01993870488631105</v>
+        <v>0.004492426669337407</v>
       </c>
       <c r="T12">
-        <v>0.01993870488631106</v>
+        <v>0.004492426669337408</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,22 +1216,22 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.2216933333333333</v>
+        <v>0.081563</v>
       </c>
       <c r="H13">
-        <v>0.66508</v>
+        <v>0.244689</v>
       </c>
       <c r="I13">
-        <v>0.08800838744757017</v>
+        <v>0.03578387091254728</v>
       </c>
       <c r="J13">
-        <v>0.08800838744757018</v>
+        <v>0.03578387091254728</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>23.493119</v>
       </c>
       <c r="O13">
-        <v>0.3944590147859676</v>
+        <v>0.3702382146908386</v>
       </c>
       <c r="P13">
-        <v>0.3944590147859677</v>
+        <v>0.3702382146908386</v>
       </c>
       <c r="Q13">
-        <v>1.736089287168889</v>
+        <v>0.6387230883323333</v>
       </c>
       <c r="R13">
-        <v>15.62480358452</v>
+        <v>5.748507794991</v>
       </c>
       <c r="S13">
-        <v>0.03471570180547025</v>
+        <v>0.01324855648138893</v>
       </c>
       <c r="T13">
-        <v>0.03471570180547026</v>
+        <v>0.01324855648138893</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,22 +1278,22 @@
         <v>25</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.2216933333333333</v>
+        <v>0.081563</v>
       </c>
       <c r="H14">
-        <v>0.66508</v>
+        <v>0.244689</v>
       </c>
       <c r="I14">
-        <v>0.08800838744757017</v>
+        <v>0.03578387091254728</v>
       </c>
       <c r="J14">
-        <v>0.08800838744757018</v>
+        <v>0.03578387091254728</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.804271333333333</v>
+        <v>6.127532</v>
       </c>
       <c r="N14">
-        <v>5.412813999999999</v>
+        <v>18.382596</v>
       </c>
       <c r="O14">
-        <v>0.09088334663693197</v>
+        <v>0.2896992742608144</v>
       </c>
       <c r="P14">
-        <v>0.09088334663693197</v>
+        <v>0.2896992742608145</v>
       </c>
       <c r="Q14">
-        <v>0.3999949261244444</v>
+        <v>0.499779892516</v>
       </c>
       <c r="R14">
-        <v>3.59995433512</v>
+        <v>4.498019032644</v>
       </c>
       <c r="S14">
-        <v>0.007998496783354932</v>
+        <v>0.01036656143360761</v>
       </c>
       <c r="T14">
-        <v>0.007998496783354934</v>
+        <v>0.01036656143360761</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,22 +1340,22 @@
         <v>22</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.2216933333333333</v>
+        <v>0.081563</v>
       </c>
       <c r="H15">
-        <v>0.66508</v>
+        <v>0.244689</v>
       </c>
       <c r="I15">
-        <v>0.08800838744757017</v>
+        <v>0.03578387091254728</v>
       </c>
       <c r="J15">
-        <v>0.08800838744757018</v>
+        <v>0.03578387091254728</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>2.498796666666667</v>
+        <v>2.108791333333333</v>
       </c>
       <c r="N15">
-        <v>7.49639</v>
+        <v>6.326373999999999</v>
       </c>
       <c r="O15">
-        <v>0.1258674343688201</v>
+        <v>0.09970006175963861</v>
       </c>
       <c r="P15">
-        <v>0.1258674343688201</v>
+        <v>0.09970006175963862</v>
       </c>
       <c r="Q15">
-        <v>0.5539665623555555</v>
+        <v>0.1719993475206666</v>
       </c>
       <c r="R15">
-        <v>4.9856990612</v>
+        <v>1.547994127686</v>
       </c>
       <c r="S15">
-        <v>0.01107738993096273</v>
+        <v>0.003567654139979899</v>
       </c>
       <c r="T15">
-        <v>0.01107738993096273</v>
+        <v>0.0035676541399799</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,22 +1402,22 @@
         <v>26</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.2216933333333333</v>
+        <v>0.081563</v>
       </c>
       <c r="H16">
-        <v>0.66508</v>
+        <v>0.244689</v>
       </c>
       <c r="I16">
-        <v>0.08800838744757017</v>
+        <v>0.03578387091254728</v>
       </c>
       <c r="J16">
-        <v>0.08800838744757018</v>
+        <v>0.03578387091254728</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>3.220799666666667</v>
+        <v>2.428579666666666</v>
       </c>
       <c r="N16">
-        <v>9.662399000000001</v>
+        <v>7.285739</v>
       </c>
       <c r="O16">
-        <v>0.1622356056685755</v>
+        <v>0.1148191093768101</v>
       </c>
       <c r="P16">
-        <v>0.1622356056685755</v>
+        <v>0.1148191093768101</v>
       </c>
       <c r="Q16">
-        <v>0.7140298141022222</v>
+        <v>0.1980822433523333</v>
       </c>
       <c r="R16">
-        <v>6.426268326920001</v>
+        <v>1.782740190171</v>
       </c>
       <c r="S16">
-        <v>0.0142780940414712</v>
+        <v>0.004108672188233419</v>
       </c>
       <c r="T16">
-        <v>0.01427809404147121</v>
+        <v>0.00410867218823342</v>
       </c>
     </row>
   </sheetData>
